--- a/Comandos Unix y Git.xlsx
+++ b/Comandos Unix y Git.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\Programación + cursos\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\Hello Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B2EFB6-1E51-4A91-9B05-976C63D68F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63689503-5FDB-408E-8843-34D695FF7D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,7 +149,7 @@
 (Yo tengo lo de main, pero la gente no tiene mi rama específica).</t>
       </text>
     </comment>
-    <comment ref="B38" authorId="10" shapeId="0" xr:uid="{A28B8828-9BB2-4A0D-B032-9FA4BD118C0F}">
+    <comment ref="B39" authorId="10" shapeId="0" xr:uid="{A28B8828-9BB2-4A0D-B032-9FA4BD118C0F}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -157,7 +157,7 @@
     Cuando pones 'git x', se ejecutará el comando indicado ahí.</t>
       </text>
     </comment>
-    <comment ref="B41" authorId="11" shapeId="0" xr:uid="{6DFE14F6-7C30-49C9-B44B-753C341B36A3}">
+    <comment ref="B42" authorId="11" shapeId="0" xr:uid="{6DFE14F6-7C30-49C9-B44B-753C341B36A3}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -167,7 +167,7 @@
 Si no pones --hard, te devuelve al punto indicado, pero no actualiza los documentos</t>
       </text>
     </comment>
-    <comment ref="A50" authorId="12" shapeId="0" xr:uid="{06BEC9D1-9651-4356-A5B1-978DBDA7DBBD}">
+    <comment ref="A51" authorId="12" shapeId="0" xr:uid="{06BEC9D1-9651-4356-A5B1-978DBDA7DBBD}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -175,7 +175,7 @@
     Hay que ejecutarlo en la rama donde queramos copiarlo (destino, no en la de origen)</t>
       </text>
     </comment>
-    <comment ref="B50" authorId="13" shapeId="0" xr:uid="{9D3A7222-431A-4369-BA0C-7B0BC4AC2192}">
+    <comment ref="B51" authorId="13" shapeId="0" xr:uid="{9D3A7222-431A-4369-BA0C-7B0BC4AC2192}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="189">
   <si>
     <t>GIT</t>
   </si>
@@ -749,6 +749,12 @@
   </si>
   <si>
     <t>origin main</t>
+  </si>
+  <si>
+    <t>git rebase</t>
+  </si>
+  <si>
+    <t>integra modificaciones de una rama a otra, moviendo la totalidad de una rama a otro punto del árbol (a continuación)</t>
   </si>
 </sst>
 </file>
@@ -1216,18 +1222,18 @@
 Realmente en tu rama tu solo trabajas en archivos que normalmente solo están en tu rama, entonces lo que te descargas es lo que no es tu proyecto y no debería haber conflictos.
 (Yo tengo lo de main, pero la gente no tiene mi rama específica).</text>
   </threadedComment>
-  <threadedComment ref="B38" dT="2023-04-04T20:06:36.37" personId="{EB78ECAE-62C3-48C8-9045-291332152118}" id="{A28B8828-9BB2-4A0D-B032-9FA4BD118C0F}">
+  <threadedComment ref="B39" dT="2023-04-04T20:06:36.37" personId="{EB78ECAE-62C3-48C8-9045-291332152118}" id="{A28B8828-9BB2-4A0D-B032-9FA4BD118C0F}">
     <text>Cuando pones 'git x', se ejecutará el comando indicado ahí.</text>
   </threadedComment>
-  <threadedComment ref="B41" dT="2023-04-17T14:34:08.55" personId="{EB78ECAE-62C3-48C8-9045-291332152118}" id="{6DFE14F6-7C30-49C9-B44B-753C341B36A3}">
+  <threadedComment ref="B42" dT="2023-04-17T14:34:08.55" personId="{EB78ECAE-62C3-48C8-9045-291332152118}" id="{6DFE14F6-7C30-49C9-B44B-753C341B36A3}">
     <text>El hash lo puedes buscar con git log, que te muestra todos los commits realizados.
 Así, borra todo lo relaizado después de ese commit.
 Si no pones --hard, te devuelve al punto indicado, pero no actualiza los documentos</text>
   </threadedComment>
-  <threadedComment ref="A50" dT="2023-04-18T10:29:13.14" personId="{EB78ECAE-62C3-48C8-9045-291332152118}" id="{06BEC9D1-9651-4356-A5B1-978DBDA7DBBD}">
+  <threadedComment ref="A51" dT="2023-04-18T10:29:13.14" personId="{EB78ECAE-62C3-48C8-9045-291332152118}" id="{06BEC9D1-9651-4356-A5B1-978DBDA7DBBD}">
     <text>Hay que ejecutarlo en la rama donde queramos copiarlo (destino, no en la de origen)</text>
   </threadedComment>
-  <threadedComment ref="B50" dT="2023-04-22T13:30:42.15" personId="{EB78ECAE-62C3-48C8-9045-291332152118}" id="{9D3A7222-431A-4369-BA0C-7B0BC4AC2192}">
+  <threadedComment ref="B51" dT="2023-04-22T13:30:42.15" personId="{EB78ECAE-62C3-48C8-9045-291332152118}" id="{9D3A7222-431A-4369-BA0C-7B0BC4AC2192}">
     <text xml:space="preserve"> (commit a copiar)</text>
   </threadedComment>
 </ThreadedComments>
@@ -1235,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1586,76 +1592,73 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>174</v>
+        <v>187</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="C37" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>173</v>
+      <c r="B42" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1663,83 +1666,97 @@
         <v>131</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>167</v>
+        <v>131</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>186</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B51" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C51" s="9" t="s">
         <v>138</v>
       </c>
     </row>
